--- a/tables/mnist_1.xlsx
+++ b/tables/mnist_1.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,102 +476,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BAARD2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BAARD3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LID</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>magnet</t>
         </is>
       </c>
-      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>FPR</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -588,6 +588,11 @@
           <t>Epsilon</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy after attack</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -598,40 +603,43 @@
       <c r="B4" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C4" t="n">
-        <v>6.2</v>
+      <c r="C4" s="1" t="n">
+        <v>80.80000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E4" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
         <v>74.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
       <c r="I4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>80.80000000000001</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M4" t="n">
         <v>81.5</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -640,40 +648,43 @@
       <c r="B5" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.2</v>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E5" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
         <v>79</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>84.39999999999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>4.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>43.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -682,40 +693,43 @@
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.2</v>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E6" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
         <v>20.3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>71.3</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.4</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -724,40 +738,43 @@
       <c r="B7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.2</v>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E7" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
         <v>18.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>84.7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>74.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>1.2</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -770,40 +787,43 @@
       <c r="B8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C8" t="n">
-        <v>6.2</v>
+      <c r="C8" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E8" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
         <v>79.60000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
       <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.8</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -812,40 +832,43 @@
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>6.2</v>
+      <c r="C9" s="1" t="n">
+        <v>99.7</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E9" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
         <v>18.1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>99.7</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>99.7</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M9" t="n">
         <v>99.7</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O9" t="n">
         <v>99.7</v>
       </c>
     </row>
@@ -854,40 +877,43 @@
       <c r="B10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>6.2</v>
+      <c r="C10" s="1" t="n">
+        <v>99.3</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E10" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" t="n">
         <v>80</v>
       </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
       <c r="I10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>99.3</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M10" t="n">
         <v>99.3</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O10" t="n">
         <v>99.3</v>
       </c>
     </row>
@@ -896,36 +922,39 @@
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.2</v>
+      <c r="C11" s="1" t="n">
+        <v>99.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E11" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M11" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O11" t="n">
         <v>99.09999999999999</v>
       </c>
     </row>
@@ -934,36 +963,39 @@
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.2</v>
+      <c r="C12" s="1" t="n">
+        <v>98.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E12" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M12" t="n">
         <v>98.5</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O12" t="n">
         <v>98.40000000000001</v>
       </c>
     </row>
@@ -972,36 +1004,39 @@
       <c r="B13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.2</v>
+      <c r="C13" s="1" t="n">
+        <v>96.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E13" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M13" t="n">
         <v>96.7</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O13" t="n">
         <v>96.40000000000001</v>
       </c>
     </row>
@@ -1014,40 +1049,43 @@
       <c r="B14" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.2</v>
+      <c r="C14" s="1" t="n">
+        <v>99.7</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E14" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
       <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>99.7</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M14" t="n">
         <v>99.7</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O14" t="n">
         <v>99.7</v>
       </c>
     </row>
@@ -1056,40 +1094,43 @@
       <c r="B15" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C15" t="n">
-        <v>6.2</v>
+      <c r="C15" s="1" t="n">
+        <v>97.59999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E15" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
       <c r="I15" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M15" t="n">
         <v>97.7</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O15" t="n">
         <v>97.59999999999999</v>
       </c>
     </row>
@@ -1098,40 +1139,43 @@
       <c r="B16" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.2</v>
+      <c r="C16" s="1" t="n">
+        <v>91.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E16" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
         <v>72.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
       <c r="I16" t="n">
+        <v>100</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M16" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O16" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -1140,40 +1184,43 @@
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.2</v>
+      <c r="C17" s="1" t="n">
+        <v>69.39999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E17" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="n">
         <v>72.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
       <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>69.89999999999999</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M17" t="n">
         <v>72</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O17" t="n">
         <v>89.60000000000001</v>
       </c>
     </row>
@@ -1182,40 +1229,43 @@
       <c r="B18" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C18" t="n">
-        <v>6.2</v>
+      <c r="C18" s="1" t="n">
+        <v>30.3</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E18" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
         <v>72.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
       <c r="I18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" t="n">
         <v>5.800000000000001</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>44.1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M18" t="n">
         <v>32.2</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O18" t="n">
         <v>96.2</v>
       </c>
     </row>
@@ -1224,36 +1274,39 @@
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.2</v>
+      <c r="C19" s="1" t="n">
+        <v>10.2</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E19" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>7.199999999999999</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>31.3</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M19" t="n">
         <v>11.3</v>
       </c>
-      <c r="M19" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O19" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1262,36 +1315,39 @@
       <c r="B20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>6.2</v>
+      <c r="C20" s="1" t="n">
+        <v>2.3</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E20" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>7.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>17.7</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M20" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O20" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -1300,36 +1356,39 @@
       <c r="B21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.2</v>
+      <c r="C21" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E21" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>10.9</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>44.1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.9</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1342,40 +1401,43 @@
       <c r="B22" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.2</v>
+      <c r="C22" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E22" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
         <v>72</v>
       </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
       <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="n">
         <v>8.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>64.7</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M22" t="n">
         <v>29.4</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O22" t="n">
         <v>99.5</v>
       </c>
     </row>
@@ -1388,40 +1450,43 @@
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>6.2</v>
+      <c r="C23" s="1" t="n">
+        <v>3.5</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E23" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
       <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="n">
         <v>8.1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>25</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M23" t="n">
         <v>14.9</v>
       </c>
-      <c r="M23" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O23" t="n">
         <v>72.59999999999999</v>
       </c>
     </row>
@@ -1430,40 +1495,43 @@
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.2</v>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E24" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
         <v>72.2</v>
       </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
       <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
         <v>7.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>28.6</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M24" t="n">
         <v>3.3</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O24" t="n">
         <v>90.59999999999999</v>
       </c>
     </row>
@@ -1472,40 +1540,43 @@
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
-        <v>6.2</v>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E25" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
       <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="n">
         <v>7.7</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>28.7</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M25" t="n">
         <v>3.1</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O25" t="n">
         <v>97</v>
       </c>
     </row>
@@ -1518,40 +1589,43 @@
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>6.2</v>
+      <c r="C26" s="1" t="n">
+        <v>33.1</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E26" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>5.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>48</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M26" t="n">
         <v>34.4</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O26" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1560,40 +1634,43 @@
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
-        <v>6.2</v>
+      <c r="C27" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E27" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>3.1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>65.2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M27" t="n">
         <v>60.9</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O27" t="n">
         <v>69.89999999999999</v>
       </c>
     </row>
@@ -1606,40 +1683,43 @@
       <c r="B28" s="1" t="n">
         <v>1e-06</v>
       </c>
-      <c r="C28" t="n">
-        <v>6.2</v>
+      <c r="C28" s="1" t="n">
+        <v>1.6</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E28" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G28" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>91.8</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>1.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>59.7</v>
       </c>
-      <c r="K28" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M28" t="n">
         <v>3.3</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O28" t="n">
         <v>97.2</v>
       </c>
     </row>
@@ -1652,40 +1732,43 @@
       <c r="B29" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C29" t="n">
-        <v>6.2</v>
+      <c r="C29" s="1" t="n">
+        <v>84.2</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E29" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G29" t="n">
+        <v>100</v>
+      </c>
+      <c r="H29" t="n">
         <v>72.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
       <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="K29" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M29" t="n">
         <v>84.39999999999999</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O29" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1694,40 +1777,43 @@
       <c r="B30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C30" t="n">
-        <v>6.2</v>
+      <c r="C30" s="1" t="n">
+        <v>6.9</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E30" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>64.8</v>
       </c>
-      <c r="K30" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M30" t="n">
         <v>8.6</v>
       </c>
-      <c r="M30" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1736,40 +1822,43 @@
       <c r="B31" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>6.2</v>
+      <c r="C31" s="1" t="n">
+        <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E31" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
         <v>72.5</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c r="I31" t="n">
-        <v>0.2</v>
-      </c>
       <c r="J31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K31" t="n">
         <v>58.6</v>
       </c>
-      <c r="K31" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M31" t="n">
         <v>2.8</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1778,40 +1867,43 @@
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
-        <v>6.2</v>
+      <c r="C32" s="1" t="n">
+        <v>0.4</v>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E32" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G32" t="n">
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>84</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.3</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>57.4</v>
       </c>
-      <c r="K32" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M32" t="n">
         <v>2.3</v>
       </c>
-      <c r="M32" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O32" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1820,40 +1912,43 @@
       <c r="B33" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>6.2</v>
+      <c r="C33" s="1" t="n">
+        <v>0.4</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E33" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>61.5</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M33" t="n">
         <v>2.3</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O33" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1866,36 +1961,39 @@
       <c r="B34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="1" t="n">
+        <v>99.59999999999999</v>
+      </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G34" t="n">
         <v>99.7</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>100</v>
-      </c>
       <c r="I34" t="n">
+        <v>100</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M34" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O34" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
@@ -1904,36 +2002,39 @@
       <c r="B35" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="1" t="n">
+        <v>99</v>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G35" t="n">
         <v>99.8</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>79.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>100</v>
-      </c>
       <c r="I35" t="n">
+        <v>100</v>
+      </c>
+      <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>99</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M35" t="n">
         <v>99</v>
       </c>
-      <c r="M35" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O35" t="n">
         <v>99.09999999999999</v>
       </c>
     </row>
@@ -1942,36 +2043,39 @@
       <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="1" t="n">
+        <v>96.8</v>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G36" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
         <v>79.2</v>
       </c>
-      <c r="H36" t="n">
-        <v>100</v>
-      </c>
       <c r="I36" t="n">
+        <v>100</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>96.8</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M36" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="M36" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O36" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>
@@ -1984,40 +2088,43 @@
       <c r="B37" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C37" t="n">
-        <v>6.2</v>
+      <c r="C37" s="1" t="n">
+        <v>99.8</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="E37" t="n">
-        <v>9.5</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>9.5</v>
       </c>
       <c r="G37" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
         <v>72.3</v>
       </c>
-      <c r="H37" t="n">
-        <v>100</v>
-      </c>
       <c r="I37" t="n">
+        <v>100</v>
+      </c>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>99.8</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M37" t="n">
         <v>99.8</v>
       </c>
-      <c r="M37" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O37" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2030,40 +2137,43 @@
       <c r="B38" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C38" t="n">
-        <v>6.2</v>
+      <c r="C38" s="1" t="n">
+        <v>99.8</v>
       </c>
       <c r="D38" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E38" t="n">
         <v>99.8</v>
       </c>
-      <c r="E38" t="n">
-        <v>9.5</v>
-      </c>
       <c r="F38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G38" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>79.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>100</v>
-      </c>
       <c r="I38" t="n">
+        <v>100</v>
+      </c>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>99.8</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M38" t="n">
         <v>99.8</v>
       </c>
-      <c r="M38" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O38" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -2072,40 +2182,43 @@
       <c r="B39" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C39" t="n">
-        <v>6.2</v>
+      <c r="C39" s="1" t="n">
+        <v>98.40000000000001</v>
       </c>
       <c r="D39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E39" t="n">
         <v>98.7</v>
       </c>
-      <c r="E39" t="n">
-        <v>9.5</v>
-      </c>
       <c r="F39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G39" t="n">
         <v>99.2</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>72.2</v>
       </c>
-      <c r="H39" t="n">
-        <v>100</v>
-      </c>
       <c r="I39" t="n">
+        <v>100</v>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M39" t="n">
         <v>98.5</v>
       </c>
-      <c r="M39" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O39" t="n">
         <v>98.5</v>
       </c>
     </row>
@@ -2114,40 +2227,43 @@
       <c r="B40" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C40" t="n">
-        <v>6.2</v>
+      <c r="C40" s="1" t="n">
+        <v>93.59999999999999</v>
       </c>
       <c r="D40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E40" t="n">
         <v>95.3</v>
       </c>
-      <c r="E40" t="n">
-        <v>9.5</v>
-      </c>
       <c r="F40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G40" t="n">
         <v>96.3</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>72.2</v>
       </c>
-      <c r="H40" t="n">
-        <v>100</v>
-      </c>
       <c r="I40" t="n">
+        <v>100</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>93.7</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M40" t="n">
         <v>93.7</v>
       </c>
-      <c r="M40" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O40" t="n">
         <v>93.7</v>
       </c>
     </row>
@@ -2156,51 +2272,54 @@
       <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C41" t="n">
-        <v>6.2</v>
+      <c r="C41" s="1" t="n">
+        <v>74</v>
       </c>
       <c r="D41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E41" t="n">
         <v>84.3</v>
       </c>
-      <c r="E41" t="n">
-        <v>9.5</v>
-      </c>
       <c r="F41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G41" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>72</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>1.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="K41" t="n">
-        <v>0.8</v>
-      </c>
       <c r="L41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M41" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="M41" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O41" t="n">
         <v>74.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A21"/>
